--- a/P0103/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0103/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,145 +1,279 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5E380A-54FE-4EF7-A2A3-78E0C8C49B59}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>PR1001</t>
+  </si>
+  <si>
+    <t>ModelColorado_dx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/DIAGNOSTICO/EPANET DX/Redes existentes.xls</t>
+  </si>
+  <si>
+    <t>UT PMAA CORREGIMIENTOS 2019</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Modelo utilizado para evaluar la red existente del acueducto del corregimiento de Colorado en el municipio de Nechí. Esta modelación se realizó en períodos extendidos con frecuencia horaria y utilizando patrones de consumo medidos. Se realizó una distribución de la demanda en función de la densidad poblacional y se modeló la red sin considerar el caudal de incendios. La red de distribución existente corresponde a una red abierta, en dónde la determinación de caudales se realizó a partir del método de repartición media. Se alimentó el modelo a partir de la información topográfica y la asignación de demandas en cada nodo. Se asignó la información de la bomba para las condiciones al inicio del periodo de diseño y se indicó la longitud de los tramos, la rugosidad del material (ks=0.0015 para PVC) y el diámetro interno de la tubería (mm). En el modelo se asume que el estado de las tuberías es perfecto, es decir que tiene una eficiencia de 100%, lo cual no es así debido al uso de la red</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Númerico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidráulico </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPANET 2.0 </t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>1 minuto</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condición actual </t>
+  </si>
+  <si>
+    <t>Se evalúa la condición actual del sistema con la información recolectada en campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el informe asociado al modelo, se relacionan cada uno de los anexos utilizados para la construcción del modelo. El modelo corre correctamente sin generar errores. </t>
+  </si>
+  <si>
+    <t>Colorado, Nechí, modelo hidráulico, red de acueducto, acueducto veredal, demanda, distribución, situación actual</t>
+  </si>
+  <si>
+    <t>PR1002</t>
+  </si>
+  <si>
+    <t>Model_EPANET_COLORADO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/05_MODELO/Model_EPANET_COLORADO.net</t>
+  </si>
+  <si>
+    <t>Modelo utilizado para evaluar las mejoras de la red existente del microacueducto dl corregimiento de Colorado en el municipio de Nechí, por medio de la inclusión de un sistema de captación, PTAP, almacenamiento, líneas de impulsión y redes de distribución. Esta modelación se realizó en períodos extendidos con frecuencia horaria y utilizando patrones de consumo medidos. Se realizó una distribución de la demanda en función de la densidad poblacional y se modeló la red sin considerar el caudal de incendios. La red de distribución existente corresponde a una red abierta, en dónde la determinación de caudales se realizó a partir del método de repartición media. Se alimentó el modelo a partir de la información topográfica y la asignación de demandas en cada nodo. Se asignó la información de la bomba para las condiciones al inicio del periodo de diseño y se indicó la longitud de los tramos, la rugosidad del material (ks=0.0015 para PVC) y el diámetro interno de la tubería (mm). La red de acueducto existente permite garantizar el caudal máximo horario y las presiones   de servicio para el final del periodo para el corregimiento de Colorado, sin embargo, se presentan bajas velocidades en la mayoría de los tramos.</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Se evalúa la condición a diseñar para ver su funcionamiento</t>
+  </si>
+  <si>
+    <t>Colorado, Nechí, modelo hidráulico, red de acueducto, acueducto veredal, demanda, distribución, captación, almacenamiento, líneas de impulsión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,12 +284,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -173,13 +322,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +626,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,80 +737,324 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+    <row r="2" spans="1:46">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+    <row r="3" spans="1:46">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -679,6 +1089,21 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="K5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
